--- a/src/main/resources/datatest/HoiClb.xlsx
+++ b/src/main/resources/datatest/HoiClb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ThemHoiClb" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>No.</t>
   </si>
@@ -94,7 +94,7 @@
     <t>9.SetText Email</t>
   </si>
   <si>
-    <t>www.khanhhoa.com</t>
+    <t>khanhhoa@gmail.com</t>
   </si>
   <si>
     <t>10.SetText Chiếu khấu %</t>
@@ -110,6 +110,42 @@
   </si>
   <si>
     <t>Thao tác thành công</t>
+  </si>
+  <si>
+    <t>5.Click on "Hội/Hiệp Hội/Clb" tab</t>
+  </si>
+  <si>
+    <t>6.Select on Hội cần xóa</t>
+  </si>
+  <si>
+    <t>7.Show popup</t>
+  </si>
+  <si>
+    <t>8.Click "Xóa" button</t>
+  </si>
+  <si>
+    <t>9.Verify Notification Message Text</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa HoiClB</t>
+  </si>
+  <si>
+    <t>6.Click "pencil" icon</t>
+  </si>
+  <si>
+    <t>8.Edit Tên Hội Clb</t>
+  </si>
+  <si>
+    <t>Tỉnh Đoàn Khánh Hòa</t>
+  </si>
+  <si>
+    <t>9.Edit Email</t>
+  </si>
+  <si>
+    <t>khanhhoa1234@gmail.com</t>
+  </si>
+  <si>
+    <t>10.Edit Chiếu khấu %</t>
   </si>
 </sst>
 </file>
@@ -122,7 +158,7 @@
     <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -151,6 +187,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -508,7 +551,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -540,15 +583,17 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -563,26 +608,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,152 +749,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -849,13 +911,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1333,8 +1416,8 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
@@ -1366,7 +1449,7 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="8">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1386,7 +1469,7 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="9"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1398,7 +1481,7 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="9"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1410,7 +1493,7 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="9"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1420,7 +1503,7 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="9"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1430,7 +1513,7 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="9"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1440,7 +1523,7 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="9"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1450,7 +1533,7 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="9"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1462,19 +1545,19 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="9"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="9"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1486,7 +1569,7 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="9"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1496,7 +1579,7 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="9"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1506,7 +1589,7 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="10"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1523,7 +1606,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://saigon-business.erp.meu-solutions.com/dang-nhap"/>
-    <hyperlink ref="F10" r:id="rId2" display="www.khanhhoa.com"/>
+    <hyperlink ref="F10" r:id="rId2" display="khanhhoa@gmail.com" tooltip="mailto:khanhhoa@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1535,18 +1618,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="33.25" customWidth="1"/>
     <col min="3" max="3" width="27.3796296296296" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="5" max="5" width="36.7777777777778" customWidth="1"/>
     <col min="6" max="6" width="66.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1574,69 +1657,111 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="6"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="9">
         <v>123456</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="7"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="3"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A2:A10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://saigon-business.erp.meu-solutions.com/dang-nhap"/>
@@ -1651,13 +1776,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="33.75" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
@@ -1694,7 +1819,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
@@ -1707,7 +1832,7 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="6"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1719,43 +1844,132 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7">
         <v>123456</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="7"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="3"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="3"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="3"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:6">
+      <c r="A14" s="3"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A2:A14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://saigon-business.erp.meu-solutions.com/dang-nhap"/>
+    <hyperlink ref="F10" r:id="rId2" display="khanhhoa1234@gmail.com" tooltip="mailto:khanhhoa1234@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/datatest/HoiClb.xlsx
+++ b/src/main/resources/datatest/HoiClb.xlsx
@@ -136,7 +136,7 @@
     <t>8.Edit Tên Hội Clb</t>
   </si>
   <si>
-    <t>Tỉnh Đoàn Khánh Hòa</t>
+    <t>Khánh Hòa FC</t>
   </si>
   <si>
     <t>9.Edit Email</t>
@@ -1779,7 +1779,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
